--- a/Formulas/Items.xlsx
+++ b/Formulas/Items.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dean\Documents\GitHub\Lorule-Darkl-Ages-Server\Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dm882\OneDrive\Documents\GitHub\Lorule-Dark-Ages-Server\Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="C12DF743408336F221ED87CB1D685192055D3951" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{0EE2F9D9-6BC7-4EE0-8B91-9FCA4F841FA5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="255" activeTab="3" xr2:uid="{07DCC4FB-E7FF-4E2F-8C3F-1FC255722FB8}"/>
   </bookViews>
@@ -19,9 +20,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
-    <pivotCache cacheId="17" r:id="rId6"/>
-    <pivotCache cacheId="28" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -278,1135 +279,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU"/>
-              <a:t>Greaves</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Leather Greaves</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$T$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33006</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FE57-401A-BE2C-91F1CCE9CBAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iron Greaves</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$T$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1815</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>825</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33018</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FE57-401A-BE2C-91F1CCE9CBAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mythril Greaves</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$4:$T$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3575</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1625</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33007</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FE57-401A-BE2C-91F1CCE9CBAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hy-Brasyl Greaves</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$5:$T$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5170</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2350</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33008</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FE57-401A-BE2C-91F1CCE9CBAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Enforced Greaves</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$6:$T$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2475</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>912</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>33680</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FE57-401A-BE2C-91F1CCE9CBAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Spiked Greaves</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$7:$T$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2475</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1352</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34120</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-FE57-401A-BE2C-91F1CCE9CBAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Reinforced Spiked Greaves</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$8:$T$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2475</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1353</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34121</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-FE57-401A-BE2C-91F1CCE9CBAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unrivaled Greaves</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$9:$T$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5445</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2475</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1354</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>34122</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-FE57-401A-BE2C-91F1CCE9CBAC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="620405112"/>
-        <c:axId val="620406752"/>
-        <c:axId val="484012448"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="620405112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="620406752"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="620406752"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="620405112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="484012448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="620406752"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2439,7 +1311,7 @@
       </c:serAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -2550,541 +1422,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="308">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3556,42 +1894,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D822F8-4EF4-4063-BE1F-A3124C1721B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -3620,7 +1922,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4495,7 +2797,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C983EE1-E0CD-4AE4-A62F-69F45B64E685}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C983EE1-E0CD-4AE4-A62F-69F45B64E685}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:R28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0">
@@ -4711,7 +3013,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26FDB5FF-DEC2-460E-8BCE-A724151D7C10}" name="PivotTable10" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26FDB5FF-DEC2-460E-8BCE-A724151D7C10}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -4924,7 +3226,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB7C7AD9-B4F9-4B5B-9BEA-4DD2AFCCE79A}" name="PivotTable18" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB7C7AD9-B4F9-4B5B-9BEA-4DD2AFCCE79A}" name="PivotTable18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -7103,7 +5405,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,7 +5496,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <f>INT(C2 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" ref="D2:D9" si="0">INT(C2 / 10 * 100 / 70) + ROW()</f>
         <v>3</v>
       </c>
       <c r="E2">
@@ -7260,7 +5562,7 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <f>INT(C3 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="E3">
@@ -7272,11 +5574,11 @@
         <v>825</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">INT(ROW() * 1.5)</f>
+        <f t="shared" ref="G3:G16" si="1">INT(ROW() * 1.5)</f>
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="1">INT(ROW() * 2.5)</f>
+        <f t="shared" ref="H3:H16" si="2">INT(ROW() * 2.5)</f>
         <v>7</v>
       </c>
       <c r="I3">
@@ -7298,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O5" si="2">1 + (INT(C3 * 0.15))</f>
+        <f t="shared" ref="O3:O5" si="3">1 + (INT(C3 * 0.15))</f>
         <v>5</v>
       </c>
       <c r="P3">
@@ -7329,7 +5631,7 @@
         <v>65</v>
       </c>
       <c r="D4">
-        <f>INT(C4 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="E4">
@@ -7341,40 +5643,40 @@
         <v>1625</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
       <c r="P4">
         <v>239</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4" si="3">P4+  HEX2DEC(8000)</f>
+        <f t="shared" ref="Q4" si="4">P4+  HEX2DEC(8000)</f>
         <v>33007</v>
       </c>
       <c r="R4">
@@ -7398,7 +5700,7 @@
         <v>94</v>
       </c>
       <c r="D5">
-        <f>INT(C5 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E5">
@@ -7410,11 +5712,11 @@
         <v>2350</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I5">
@@ -7436,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="P5">
@@ -7467,23 +5769,23 @@
         <v>99</v>
       </c>
       <c r="D6">
-        <f>INT(C6 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6" si="4">C6 * 55</f>
+        <f t="shared" ref="E6" si="5">C6 * 55</f>
         <v>5445</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6" si="5">C6 * 25</f>
+        <f t="shared" ref="F6" si="6">C6 * 25</f>
         <v>2475</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I6">
@@ -7505,14 +5807,14 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6" si="6">1 + (INT(C6 * 0.15))</f>
+        <f t="shared" ref="O6" si="7">1 + (INT(C6 * 0.15))</f>
         <v>15</v>
       </c>
       <c r="P6">
         <v>912</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q16" si="7">P6+  HEX2DEC(8000)</f>
+        <f t="shared" ref="Q6:Q16" si="8">P6+  HEX2DEC(8000)</f>
         <v>33680</v>
       </c>
       <c r="R6">
@@ -7536,23 +5838,23 @@
         <v>99</v>
       </c>
       <c r="D7">
-        <f>INT(C7 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E8" si="8">C7 * 55</f>
+        <f t="shared" ref="E7:E8" si="9">C7 * 55</f>
         <v>5445</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F8" si="9">C7 * 25</f>
+        <f t="shared" ref="F7:F8" si="10">C7 * 25</f>
         <v>2475</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I7">
@@ -7574,14 +5876,14 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O8" si="10">1 + (INT(C7 * 0.15))</f>
+        <f t="shared" ref="O7:O8" si="11">1 + (INT(C7 * 0.15))</f>
         <v>15</v>
       </c>
       <c r="P7">
         <v>1352</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34120</v>
       </c>
       <c r="R7">
@@ -7605,23 +5907,23 @@
         <v>99</v>
       </c>
       <c r="D8">
-        <f>INT(C8 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="E8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5445</v>
       </c>
       <c r="F8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2475</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I8">
@@ -7643,14 +5945,14 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="P8">
         <v>1353</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34121</v>
       </c>
       <c r="R8">
@@ -7674,23 +5976,23 @@
         <v>99</v>
       </c>
       <c r="D9">
-        <f>INT(C9 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9" si="11">C9 * 55</f>
+        <f t="shared" ref="E9" si="12">C9 * 55</f>
         <v>5445</v>
       </c>
       <c r="F9">
-        <f t="shared" ref="F9" si="12">C9 * 25</f>
+        <f t="shared" ref="F9" si="13">C9 * 25</f>
         <v>2475</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I9">
@@ -7712,14 +6014,14 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9" si="13">1 + (INT(C9 * 0.15))</f>
+        <f t="shared" ref="O9" si="14">1 + (INT(C9 * 0.15))</f>
         <v>15</v>
       </c>
       <c r="P9">
         <v>1354</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34122</v>
       </c>
       <c r="R9">
@@ -7743,23 +6045,23 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <f>INT(C11 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" ref="D11:D16" si="15">INT(C11 / 10 * 100 / 70) + ROW()</f>
         <v>11</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="14">C11 * 55</f>
+        <f t="shared" ref="E11" si="16">C11 * 55</f>
         <v>330</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11" si="15">C11 * 25</f>
+        <f t="shared" ref="F11" si="17">C11 * 25</f>
         <v>150</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I11">
@@ -7781,14 +6083,14 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11" si="16">1 + (INT(C11 * 0.15))</f>
+        <f t="shared" ref="O11" si="18">1 + (INT(C11 * 0.15))</f>
         <v>1</v>
       </c>
       <c r="P11">
         <v>241</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33009</v>
       </c>
       <c r="R11">
@@ -7812,23 +6114,23 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <f>INT(C12 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E15" si="17">C12 * 55</f>
+        <f t="shared" ref="E12:E15" si="19">C12 * 55</f>
         <v>330</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F15" si="18">C12 * 25</f>
+        <f t="shared" ref="F12:F15" si="20">C12 * 25</f>
         <v>150</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I12">
@@ -7850,14 +6152,14 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O15" si="19">1 + (INT(C12 * 0.15))</f>
+        <f t="shared" ref="O12:O15" si="21">1 + (INT(C12 * 0.15))</f>
         <v>1</v>
       </c>
       <c r="P12">
         <v>242</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33010</v>
       </c>
       <c r="R12">
@@ -7881,23 +6183,23 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <f>INT(C13 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="E13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>330</v>
       </c>
       <c r="F13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="H13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="I13">
@@ -7919,14 +6221,14 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P13">
         <v>243</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33011</v>
       </c>
       <c r="R13">
@@ -7950,23 +6252,23 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <f>INT(C14 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="E14">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>330</v>
       </c>
       <c r="F14">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>150</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="I14">
@@ -7988,14 +6290,14 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="P14">
         <v>244</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33012</v>
       </c>
       <c r="R14">
@@ -8019,23 +6321,23 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <f>INT(C15 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="E15">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1650</v>
       </c>
       <c r="F15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>750</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="I15">
@@ -8057,14 +6359,14 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="P15">
         <v>245</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33013</v>
       </c>
       <c r="R15">
@@ -8088,23 +6390,23 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <f>INT(C16 / 10 * 100 / 70) + ROW()</f>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" si="20">C16 * 55</f>
+        <f t="shared" ref="E16" si="22">C16 * 55</f>
         <v>1650</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16" si="21">C16 * 25</f>
+        <f t="shared" ref="F16" si="23">C16 * 25</f>
         <v>750</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I16">
@@ -8126,14 +6428,14 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16" si="22">1 + (INT(C16 * 0.15))</f>
+        <f t="shared" ref="O16" si="24">1 + (INT(C16 * 0.15))</f>
         <v>5</v>
       </c>
       <c r="P16">
         <v>246</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>33014</v>
       </c>
       <c r="R16">

--- a/Formulas/Items.xlsx
+++ b/Formulas/Items.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dm882\OneDrive\Documents\GitHub\Lorule-Dark-Ages-Server\Formulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dean\Documents\GitHub\Lorule-Darkl-Ages-Server\Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="C12DF743408336F221ED87CB1D685192055D3951" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{0EE2F9D9-6BC7-4EE0-8B91-9FCA4F841FA5}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="255" activeTab="3" xr2:uid="{07DCC4FB-E7FF-4E2F-8C3F-1FC255722FB8}"/>
   </bookViews>
@@ -20,9 +19,9 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
-    <pivotCache cacheId="2" r:id="rId7"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="17" r:id="rId6"/>
+    <pivotCache cacheId="28" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -299,6 +298,1135 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Greaves</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Leather Greaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$T$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE57-401A-BE2C-91F1CCE9CBAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iron Greaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$T$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33018</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE57-401A-BE2C-91F1CCE9CBAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mythril Greaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE57-401A-BE2C-91F1CCE9CBAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hy-Brasyl Greaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$T$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2350</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FE57-401A-BE2C-91F1CCE9CBAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Enforced Greaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$T$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33680</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FE57-401A-BE2C-91F1CCE9CBAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spiked Greaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34120</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FE57-401A-BE2C-91F1CCE9CBAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reinforced Spiked Greaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$T$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1353</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FE57-401A-BE2C-91F1CCE9CBAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unrivaled Greaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1354</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34122</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FE57-401A-BE2C-91F1CCE9CBAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="620405112"/>
+        <c:axId val="620406752"/>
+        <c:axId val="484012448"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="620405112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620406752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="620406752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620405112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="484012448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="620406752"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
@@ -1311,7 +2439,7 @@
       </c:serAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1422,7 +2550,541 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="308">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1894,6 +3556,42 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60D822F8-4EF4-4063-BE1F-A3124C1721B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -1922,7 +3620,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2797,7 +4495,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C983EE1-E0CD-4AE4-A62F-69F45B64E685}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C983EE1-E0CD-4AE4-A62F-69F45B64E685}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:R28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" showAll="0">
@@ -3013,7 +4711,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26FDB5FF-DEC2-460E-8BCE-A724151D7C10}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26FDB5FF-DEC2-460E-8BCE-A724151D7C10}" name="PivotTable10" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -3226,7 +4924,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB7C7AD9-B4F9-4B5B-9BEA-4DD2AFCCE79A}" name="PivotTable18" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EB7C7AD9-B4F9-4B5B-9BEA-4DD2AFCCE79A}" name="PivotTable18" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="20">
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5405,7 +7103,7 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5496,7 +7194,7 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">INT(C2 / 10 * 100 / 70) + ROW()</f>
+        <f>INT(C2 / 10 * 100 / 70) + ROW()</f>
         <v>3</v>
       </c>
       <c r="E2">
@@ -5562,7 +7260,7 @@
         <v>33</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
+        <f>INT(C3 / 10 * 100 / 70) + ROW()</f>
         <v>7</v>
       </c>
       <c r="E3">
@@ -5574,11 +7272,11 @@
         <v>825</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="1">INT(ROW() * 1.5)</f>
+        <f t="shared" ref="G3:G16" si="0">INT(ROW() * 1.5)</f>
         <v>4</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H16" si="2">INT(ROW() * 2.5)</f>
+        <f t="shared" ref="H3:H16" si="1">INT(ROW() * 2.5)</f>
         <v>7</v>
       </c>
       <c r="I3">
@@ -5600,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O5" si="3">1 + (INT(C3 * 0.15))</f>
+        <f t="shared" ref="O3:O5" si="2">1 + (INT(C3 * 0.15))</f>
         <v>5</v>
       </c>
       <c r="P3">
@@ -5631,7 +7329,7 @@
         <v>65</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
+        <f>INT(C4 / 10 * 100 / 70) + ROW()</f>
         <v>13</v>
       </c>
       <c r="E4">
@@ -5643,40 +7341,40 @@
         <v>1625</v>
       </c>
       <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
       <c r="P4">
         <v>239</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4" si="4">P4+  HEX2DEC(8000)</f>
+        <f t="shared" ref="Q4" si="3">P4+  HEX2DEC(8000)</f>
         <v>33007</v>
       </c>
       <c r="R4">
@@ -5700,7 +7398,7 @@
         <v>94</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f>INT(C5 / 10 * 100 / 70) + ROW()</f>
         <v>18</v>
       </c>
       <c r="E5">
@@ -5712,33 +7410,33 @@
         <v>2350</v>
       </c>
       <c r="G5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="P5">
@@ -5769,23 +7467,23 @@
         <v>99</v>
       </c>
       <c r="D6">
+        <f>INT(C6 / 10 * 100 / 70) + ROW()</f>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6" si="4">C6 * 55</f>
+        <v>5445</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6" si="5">C6 * 25</f>
+        <v>2475</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6" si="5">C6 * 55</f>
-        <v>5445</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ref="F6" si="6">C6 * 25</f>
-        <v>2475</v>
-      </c>
-      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I6">
@@ -5807,14 +7505,14 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6" si="7">1 + (INT(C6 * 0.15))</f>
+        <f t="shared" ref="O6" si="6">1 + (INT(C6 * 0.15))</f>
         <v>15</v>
       </c>
       <c r="P6">
         <v>912</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q16" si="8">P6+  HEX2DEC(8000)</f>
+        <f t="shared" ref="Q6:Q16" si="7">P6+  HEX2DEC(8000)</f>
         <v>33680</v>
       </c>
       <c r="R6">
@@ -5838,23 +7536,23 @@
         <v>99</v>
       </c>
       <c r="D7">
+        <f>INT(C7 / 10 * 100 / 70) + ROW()</f>
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:E8" si="8">C7 * 55</f>
+        <v>5445</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F8" si="9">C7 * 25</f>
+        <v>2475</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <f t="shared" ref="E7:E8" si="9">C7 * 55</f>
-        <v>5445</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F8" si="10">C7 * 25</f>
-        <v>2475</v>
-      </c>
-      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I7">
@@ -5876,14 +7574,14 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O8" si="11">1 + (INT(C7 * 0.15))</f>
+        <f t="shared" ref="O7:O8" si="10">1 + (INT(C7 * 0.15))</f>
         <v>15</v>
       </c>
       <c r="P7">
         <v>1352</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34120</v>
       </c>
       <c r="R7">
@@ -5907,52 +7605,52 @@
         <v>99</v>
       </c>
       <c r="D8">
+        <f>INT(C8 / 10 * 100 / 70) + ROW()</f>
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="8"/>
+        <v>5445</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="9"/>
+        <v>2475</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="9"/>
-        <v>5445</v>
-      </c>
-      <c r="F8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="10"/>
-        <v>2475</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="P8">
         <v>1353</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34121</v>
       </c>
       <c r="R8">
@@ -5976,23 +7674,23 @@
         <v>99</v>
       </c>
       <c r="D9">
+        <f>INT(C9 / 10 * 100 / 70) + ROW()</f>
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="11">C9 * 55</f>
+        <v>5445</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="12">C9 * 25</f>
+        <v>2475</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <f t="shared" ref="E9" si="12">C9 * 55</f>
-        <v>5445</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9" si="13">C9 * 25</f>
-        <v>2475</v>
-      </c>
-      <c r="G9">
+        <v>13</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I9">
@@ -6014,14 +7712,14 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9" si="14">1 + (INT(C9 * 0.15))</f>
+        <f t="shared" ref="O9" si="13">1 + (INT(C9 * 0.15))</f>
         <v>15</v>
       </c>
       <c r="P9">
         <v>1354</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>34122</v>
       </c>
       <c r="R9">
@@ -6045,23 +7743,23 @@
         <v>6</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D16" si="15">INT(C11 / 10 * 100 / 70) + ROW()</f>
+        <f>INT(C11 / 10 * 100 / 70) + ROW()</f>
         <v>11</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11" si="16">C11 * 55</f>
+        <f t="shared" ref="E11" si="14">C11 * 55</f>
         <v>330</v>
       </c>
       <c r="F11">
-        <f t="shared" ref="F11" si="17">C11 * 25</f>
+        <f t="shared" ref="F11" si="15">C11 * 25</f>
         <v>150</v>
       </c>
       <c r="G11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="I11">
@@ -6083,14 +7781,14 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" ref="O11" si="18">1 + (INT(C11 * 0.15))</f>
+        <f t="shared" ref="O11" si="16">1 + (INT(C11 * 0.15))</f>
         <v>1</v>
       </c>
       <c r="P11">
         <v>241</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33009</v>
       </c>
       <c r="R11">
@@ -6114,23 +7812,23 @@
         <v>6</v>
       </c>
       <c r="D12">
-        <f t="shared" si="15"/>
+        <f>INT(C12 / 10 * 100 / 70) + ROW()</f>
         <v>12</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E15" si="19">C12 * 55</f>
+        <f t="shared" ref="E12:E15" si="17">C12 * 55</f>
         <v>330</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F15" si="20">C12 * 25</f>
+        <f t="shared" ref="F12:F15" si="18">C12 * 25</f>
         <v>150</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I12">
@@ -6152,14 +7850,14 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" ref="O12:O15" si="21">1 + (INT(C12 * 0.15))</f>
+        <f t="shared" ref="O12:O15" si="19">1 + (INT(C12 * 0.15))</f>
         <v>1</v>
       </c>
       <c r="P12">
         <v>242</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33010</v>
       </c>
       <c r="R12">
@@ -6183,23 +7881,23 @@
         <v>6</v>
       </c>
       <c r="D13">
-        <f t="shared" si="15"/>
+        <f>INT(C13 / 10 * 100 / 70) + ROW()</f>
         <v>13</v>
       </c>
       <c r="E13">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>330</v>
       </c>
       <c r="F13">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>150</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="I13">
@@ -6221,14 +7919,14 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="P13">
         <v>243</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33011</v>
       </c>
       <c r="R13">
@@ -6252,23 +7950,23 @@
         <v>6</v>
       </c>
       <c r="D14">
-        <f t="shared" si="15"/>
+        <f>INT(C14 / 10 * 100 / 70) + ROW()</f>
         <v>14</v>
       </c>
       <c r="E14">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>330</v>
       </c>
       <c r="F14">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>150</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="I14">
@@ -6290,14 +7988,14 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="P14">
         <v>244</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33012</v>
       </c>
       <c r="R14">
@@ -6321,23 +8019,23 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <f t="shared" si="15"/>
+        <f>INT(C15 / 10 * 100 / 70) + ROW()</f>
         <v>19</v>
       </c>
       <c r="E15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1650</v>
       </c>
       <c r="F15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>750</v>
       </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="I15">
@@ -6359,14 +8057,14 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="P15">
         <v>245</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33013</v>
       </c>
       <c r="R15">
@@ -6390,23 +8088,23 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <f t="shared" si="15"/>
+        <f>INT(C16 / 10 * 100 / 70) + ROW()</f>
         <v>20</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16" si="22">C16 * 55</f>
+        <f t="shared" ref="E16" si="20">C16 * 55</f>
         <v>1650</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16" si="23">C16 * 25</f>
+        <f t="shared" ref="F16" si="21">C16 * 25</f>
         <v>750</v>
       </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="I16">
@@ -6428,14 +8126,14 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" ref="O16" si="24">1 + (INT(C16 * 0.15))</f>
+        <f t="shared" ref="O16" si="22">1 + (INT(C16 * 0.15))</f>
         <v>5</v>
       </c>
       <c r="P16">
         <v>246</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>33014</v>
       </c>
       <c r="R16">
